--- a/venv/main_0501/output.xlsx
+++ b/venv/main_0501/output.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20385"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\managing multi-rooming\round 3\REcodes\venv\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\managing multi-rooming\round 3\REcodes\venv\main_0501\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45A860E-A546-4F47-9A97-7E1922468EC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34ECF4A0-26D3-40F8-B3B6-BCDA8B86D615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14940" windowHeight="7038" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -144,12 +144,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -455,8 +455,8 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M33" sqref="M33"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1206,7 +1206,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>0.1</v>
       </c>
       <c r="B22">
@@ -1241,7 +1241,7 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>0.105</v>
       </c>
       <c r="B23">
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>0.11</v>
       </c>
       <c r="B24">
@@ -1311,7 +1311,7 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>0.115</v>
       </c>
       <c r="B25">
@@ -1346,7 +1346,7 @@
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>0.12</v>
       </c>
       <c r="B26">
@@ -1381,7 +1381,7 @@
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>0.125</v>
       </c>
       <c r="B27" s="2">
@@ -1416,7 +1416,7 @@
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>0.13</v>
       </c>
       <c r="B28" s="2">
